--- a/mbs-perturbation/greedy/welm/smote/greedy_welm_lin_smote_results.xlsx
+++ b/mbs-perturbation/greedy/welm/smote/greedy_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.6442307692307693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8354978354978355</v>
+        <v>0.541871921182266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8464912280701754</v>
+        <v>0.5978260869565218</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8934802571166208</v>
+        <v>0.7014500797890794</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8679653679653679</v>
+        <v>0.6105769230769231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8414096916299559</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8623024830699776</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9122223263661073</v>
+        <v>0.6642850536440991</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8766233766233766</v>
+        <v>0.6658653846153846</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.545</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8774193548387096</v>
+        <v>0.6106442577030812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9076576998781516</v>
+        <v>0.7196296296296297</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8546637744034707</v>
+        <v>0.59375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8412017167381974</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8540305010893245</v>
+        <v>0.546916890080429</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9055605752578872</v>
+        <v>0.6355200740483629</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8872017353579176</v>
+        <v>0.59375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8640350877192983</v>
+        <v>0.478448275862069</v>
       </c>
       <c r="D6" t="n">
-        <v>0.883408071748879</v>
+        <v>0.567774936061381</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9352081921542053</v>
+        <v>0.6699657983508245</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8669878205669963</v>
+        <v>0.6216346153846154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8500458875936532</v>
+        <v>0.5204389296634763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8647303277634133</v>
+        <v>0.5789181484459969</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9108258101545943</v>
+        <v>0.6781701270923992</v>
       </c>
     </row>
   </sheetData>
